--- a/data/trans_dic/PCS12_SP_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09128349381821919</v>
+        <v>0.08887776497151015</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1013590691183091</v>
+        <v>0.09818278894918998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1040168609955007</v>
+        <v>0.1066815724250013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1130940541769249</v>
+        <v>0.1115543672605766</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1388361264123806</v>
+        <v>0.141418787418513</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1119460672980251</v>
+        <v>0.1142509273430529</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1166866923438358</v>
+        <v>0.1185021076735243</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1729360709742939</v>
+        <v>0.170850560719571</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.12025669259129</v>
+        <v>0.1220226320606086</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1172823210061843</v>
+        <v>0.1155696564849451</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1195575985920194</v>
+        <v>0.1209397798616734</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1481734512050584</v>
+        <v>0.1487654540566332</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1497889885765655</v>
+        <v>0.1504539185205933</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1670676839950328</v>
+        <v>0.1682969101592179</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1754554524987716</v>
+        <v>0.1779403579495472</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1687389486727408</v>
+        <v>0.1690078371181156</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2282282155773278</v>
+        <v>0.2265642824762829</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2023350152327662</v>
+        <v>0.2022813518233336</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2048419595309516</v>
+        <v>0.2059418031439263</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2336285244217693</v>
+        <v>0.2327060036244299</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.169746873920331</v>
+        <v>0.1731985548427972</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1695200013046559</v>
+        <v>0.1704964267323397</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1761317765656966</v>
+        <v>0.1756026769038136</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1889623770406256</v>
+        <v>0.1913284663129718</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1270583878870159</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1937733542668004</v>
+        <v>0.1937733542668003</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06238593630936349</v>
+        <v>0.06234426269153955</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1213050834197432</v>
+        <v>0.120002017466603</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08265253184011805</v>
+        <v>0.0804956852615429</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1401883634263831</v>
+        <v>0.1364382696407517</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09590322634035069</v>
+        <v>0.09672275874483578</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1078766621597054</v>
+        <v>0.1048463017072024</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1056462863164343</v>
+        <v>0.1073371559968681</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1878655091213733</v>
+        <v>0.1893098215470468</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08655483288782179</v>
+        <v>0.08878548612593484</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1256016207214391</v>
+        <v>0.1213449664948905</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1029542246288917</v>
+        <v>0.1013071108792914</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.17078396621049</v>
+        <v>0.1704226392606695</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1292028232429839</v>
+        <v>0.1251068122074805</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1992063277218134</v>
+        <v>0.1954514166658659</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1496289707982039</v>
+        <v>0.1496717630052115</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2064048424961233</v>
+        <v>0.2084389930262538</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1684680075280595</v>
+        <v>0.1706732096520163</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1848041741066143</v>
+        <v>0.187559190953477</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1828159872621725</v>
+        <v>0.1874418219097737</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2518959039837069</v>
+        <v>0.2535452566824956</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1305886340085345</v>
+        <v>0.1317692226277802</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1760988290823417</v>
+        <v>0.1769121044578255</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1533334057272809</v>
+        <v>0.1555763268549274</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.220050089680159</v>
+        <v>0.2163985355664406</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1333551058628573</v>
+        <v>0.1311523119908564</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1855472960846029</v>
+        <v>0.1846903456095723</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1552154632392912</v>
+        <v>0.1557676941692109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2056416470563453</v>
+        <v>0.2080480441052244</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2065898201828895</v>
+        <v>0.2071402855736209</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2318471503986189</v>
+        <v>0.2383895573129917</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.229024983915633</v>
+        <v>0.2262713298810243</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3302079549325387</v>
+        <v>0.3334339729582053</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.15859500470977</v>
+        <v>0.1599682899500108</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2115603797849105</v>
+        <v>0.2109130795697262</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1821300316055364</v>
+        <v>0.1818981442417267</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2571376907870878</v>
+        <v>0.2540602046531428</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1935509452724978</v>
+        <v>0.1948508317507714</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.255499126958791</v>
+        <v>0.2569947675622239</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2234948896976642</v>
+        <v>0.2229489722179753</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2842915382377389</v>
+        <v>0.2842459173497462</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3479884021430988</v>
+        <v>0.3443239188334412</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3509525890245877</v>
+        <v>0.3550103447616723</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3876163992081106</v>
+        <v>0.3810416824363964</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4489442410795084</v>
+        <v>0.4610459760494806</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2173546861612534</v>
+        <v>0.2218269679140398</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.269482298193299</v>
+        <v>0.2738143292650815</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2469192481047941</v>
+        <v>0.2471221509759108</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3200529973810138</v>
+        <v>0.3177366762657837</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1942783831539122</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2680947151422403</v>
+        <v>0.2680947151422404</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2165721652317401</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.188039706263133</v>
+        <v>0.1869654222795779</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1843607068498782</v>
+        <v>0.1854423679255494</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1709325136097128</v>
+        <v>0.1709065536748723</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.23796814071685</v>
+        <v>0.2336345033285255</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2000357548177706</v>
+        <v>0.1991233812205986</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1735433085015137</v>
+        <v>0.1775942389111234</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1681213758915725</v>
+        <v>0.1669013401962473</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2430358884284017</v>
+        <v>0.2424225394667561</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1990948849707602</v>
+        <v>0.1992427919808061</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1897199206474339</v>
+        <v>0.1903865101970955</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1754505659725445</v>
+        <v>0.1763812817634901</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2462444653244526</v>
+        <v>0.2467904254346248</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2320980428844029</v>
+        <v>0.2311637997894281</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2334928024507889</v>
+        <v>0.2344847937179371</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2169052280988066</v>
+        <v>0.2191656102431215</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2883245016892525</v>
+        <v>0.2899239489223797</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2616514203744515</v>
+        <v>0.2625679991518884</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2352228730491671</v>
+        <v>0.2371922199357328</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2229228741250775</v>
+        <v>0.2238485063177179</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2952737613034654</v>
+        <v>0.2918819007482004</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.236814003293512</v>
+        <v>0.2353674940744641</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2289600168311995</v>
+        <v>0.2270895935883195</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2111529422873662</v>
+        <v>0.2133238889077993</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2851349121129291</v>
+        <v>0.2839520186444984</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2231023401497377</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.260067502941804</v>
+        <v>0.2600675029418041</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2808474974343648</v>
@@ -1229,7 +1229,7 @@
         <v>0.3252323065268223</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3866054459515597</v>
+        <v>0.3866054459515598</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2489669001382111</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1582642434371367</v>
+        <v>0.1584730320465556</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1583607186249507</v>
+        <v>0.1584785081433255</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1902958105735476</v>
+        <v>0.1937033386004367</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2256901310873086</v>
+        <v>0.2263705263326434</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2421799323407416</v>
+        <v>0.2461882143999477</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3464146870575726</v>
+        <v>0.3480871667193984</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2910258220137809</v>
+        <v>0.2910237156030399</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3602374365769374</v>
+        <v>0.3602736502238516</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2212057452698296</v>
+        <v>0.2208826790249462</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2792410829460112</v>
+        <v>0.2785576377143076</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.25295917151899</v>
+        <v>0.2556947446143052</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3128878805967294</v>
+        <v>0.3139721766999459</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2408700551931499</v>
+        <v>0.2416327570514188</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2286968155517651</v>
+        <v>0.2305077493472011</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2543328422206768</v>
+        <v>0.2599921503562469</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3009868319865343</v>
+        <v>0.2991119364096022</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3207094870640518</v>
+        <v>0.3248544298166084</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4196470868238689</v>
+        <v>0.4185578542735812</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3638620006720147</v>
+        <v>0.3627274312153624</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4150280378913942</v>
+        <v>0.4141946973610955</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2777819974503701</v>
+        <v>0.2789556715182869</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.333501691940192</v>
+        <v>0.3321594587157852</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3032150953725125</v>
+        <v>0.304591111588042</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.357637191789311</v>
+        <v>0.3577554854012839</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.02382948679488532</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.04230915353181123</v>
+        <v>0.04230915353181122</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.3572021822600035</v>
@@ -1365,7 +1365,7 @@
         <v>0.3355030339379431</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.352377802952236</v>
+        <v>0.3523778029522361</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2956793281677871</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02192692616307099</v>
+        <v>0.02090851792336239</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02525066375305169</v>
+        <v>0.02229322883271292</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.009688281742575876</v>
+        <v>0.009637004779152374</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02205737064119428</v>
+        <v>0.02136706930851411</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3316738219804073</v>
+        <v>0.3304909709952264</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3445221927204981</v>
+        <v>0.3449226682663898</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3081611351973592</v>
+        <v>0.3045880432332988</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3217000022012332</v>
+        <v>0.323517594315865</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2716115021222849</v>
+        <v>0.2745341177719144</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2828212681979496</v>
+        <v>0.286154426633322</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2445659327088326</v>
+        <v>0.2457826525070759</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2593816102904313</v>
+        <v>0.2593956623665597</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06536199357590489</v>
+        <v>0.06260339593873283</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08080855324408015</v>
+        <v>0.07692135566499601</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04905784085952875</v>
+        <v>0.04978613942462773</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07573072097319558</v>
+        <v>0.07395083955851697</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3849140663624745</v>
+        <v>0.3849207274900075</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4015884433039357</v>
+        <v>0.4036807665340558</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3664921967863854</v>
+        <v>0.36786072206015</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3809129216730225</v>
+        <v>0.38405251673441</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3195100341383598</v>
+        <v>0.320211377743958</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3333269278690756</v>
+        <v>0.3341217100040513</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2944935808642004</v>
+        <v>0.2963373174849214</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3113648990266206</v>
+        <v>0.3103904739338734</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.167275958702368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2117973171312562</v>
+        <v>0.2117973171312563</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.271748041034077</v>
@@ -1513,7 +1513,7 @@
         <v>0.2148843824243165</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2603784006756025</v>
+        <v>0.2603784006756024</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1459241733987295</v>
+        <v>0.1444357389675219</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1644111887378636</v>
+        <v>0.1651950127101343</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1539928940444112</v>
+        <v>0.1541585225610101</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1983356998225108</v>
+        <v>0.1982175912094122</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.256827557035544</v>
+        <v>0.2562193139567218</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2750314670356161</v>
+        <v>0.2747763600824092</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2456857772881374</v>
+        <v>0.245494318767888</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.293765416133074</v>
+        <v>0.2950195538902861</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2062861830857728</v>
+        <v>0.2066219987558994</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.223929008255368</v>
+        <v>0.2253996508658164</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2047046096085265</v>
+        <v>0.2041153584223119</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2502723121148979</v>
+        <v>0.2504378572668332</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1725980760257563</v>
+        <v>0.1712763704753663</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1927664442558963</v>
+        <v>0.1929579114700194</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1807544549905951</v>
+        <v>0.1808965181207152</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2254393670713504</v>
+        <v>0.2246571267618591</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2868602857968909</v>
+        <v>0.2864291686739396</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3065515297031033</v>
+        <v>0.306014782960744</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.276819549366736</v>
+        <v>0.2748672350506727</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3180780114935913</v>
+        <v>0.319396116391481</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.225555624911536</v>
+        <v>0.2254755306821529</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2457974900622351</v>
+        <v>0.2471188787104942</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2255352228306982</v>
+        <v>0.2252218601145214</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2695441747480507</v>
+        <v>0.2698547520821665</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>43248</v>
+        <v>42108</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>44315</v>
+        <v>42927</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>44633</v>
+        <v>45776</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>61994</v>
+        <v>61150</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>42578</v>
+        <v>43370</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>35202</v>
+        <v>35927</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>40497</v>
+        <v>41127</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>84189</v>
+        <v>83174</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>93855</v>
+        <v>95233</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>88157</v>
+        <v>86870</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>92794</v>
+        <v>93867</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>153358</v>
+        <v>153970</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>70966</v>
+        <v>71281</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>73044</v>
+        <v>73581</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>75287</v>
+        <v>76353</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>92497</v>
+        <v>92644</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>69993</v>
+        <v>69483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>63625</v>
+        <v>63608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>71091</v>
+        <v>71473</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>113735</v>
+        <v>113286</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>132480</v>
+        <v>135174</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>127422</v>
+        <v>128156</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>136704</v>
+        <v>136293</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>195574</v>
+        <v>198022</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>22892</v>
+        <v>22876</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>50802</v>
+        <v>50256</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>31179</v>
+        <v>30365</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67600</v>
+        <v>65792</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>35663</v>
+        <v>35968</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>36463</v>
+        <v>35439</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>39329</v>
+        <v>39959</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>79371</v>
+        <v>79981</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>63947</v>
+        <v>65595</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>95056</v>
+        <v>91835</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>77164</v>
+        <v>75930</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>154507</v>
+        <v>154180</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>47409</v>
+        <v>45906</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>83427</v>
+        <v>81854</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>56444</v>
+        <v>56460</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>99530</v>
+        <v>100511</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>62647</v>
+        <v>63467</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>62466</v>
+        <v>63397</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>68057</v>
+        <v>69780</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>106422</v>
+        <v>107119</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>96479</v>
+        <v>97351</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>133273</v>
+        <v>133888</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>114923</v>
+        <v>116604</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>199078</v>
+        <v>195774</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>72330</v>
+        <v>71136</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>116786</v>
+        <v>116247</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>81009</v>
+        <v>81297</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>96378</v>
+        <v>97505</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>34662</v>
+        <v>34754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>60310</v>
+        <v>62012</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>38046</v>
+        <v>37589</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>61567</v>
+        <v>62168</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>112630</v>
+        <v>113605</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>188192</v>
+        <v>187616</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>125312</v>
+        <v>125152</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>168456</v>
+        <v>166439</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>104980</v>
+        <v>105685</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>160815</v>
+        <v>161756</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>116645</v>
+        <v>116360</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>133238</v>
+        <v>133217</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>58386</v>
+        <v>57771</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>91293</v>
+        <v>92348</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64392</v>
+        <v>63300</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>83705</v>
+        <v>85962</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>154359</v>
+        <v>157535</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>239716</v>
+        <v>243570</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>169889</v>
+        <v>170029</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>209672</v>
+        <v>208155</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>232856</v>
+        <v>231526</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>213676</v>
+        <v>214929</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>196511</v>
+        <v>196481</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>268019</v>
+        <v>263138</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>142883</v>
+        <v>142231</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>133048</v>
+        <v>136154</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>138847</v>
+        <v>137840</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>208736</v>
+        <v>208210</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>388757</v>
+        <v>389045</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>365337</v>
+        <v>366621</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>346605</v>
+        <v>348444</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>488832</v>
+        <v>489916</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>287415</v>
+        <v>286258</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>270620</v>
+        <v>271770</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>249362</v>
+        <v>251961</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>324734</v>
+        <v>326536</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>186894</v>
+        <v>187548</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>180335</v>
+        <v>181845</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>184107</v>
+        <v>184871</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>253602</v>
+        <v>250689</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>462408</v>
+        <v>459583</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>440901</v>
+        <v>437299</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>417136</v>
+        <v>421424</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>566036</v>
+        <v>563688</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55480</v>
+        <v>55554</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>80858</v>
+        <v>80918</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>118118</v>
+        <v>120233</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>127049</v>
+        <v>127432</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>137740</v>
+        <v>140020</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>263802</v>
+        <v>265076</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>214848</v>
+        <v>214847</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>297541</v>
+        <v>297571</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>203356</v>
+        <v>203059</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>355228</v>
+        <v>354358</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>343759</v>
+        <v>347476</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>434567</v>
+        <v>436073</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>84438</v>
+        <v>84706</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>116772</v>
+        <v>117696</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>157866</v>
+        <v>161379</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>169436</v>
+        <v>168381</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>182404</v>
+        <v>184762</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>319570</v>
+        <v>318741</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>268619</v>
+        <v>267781</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>342795</v>
+        <v>342107</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>255367</v>
+        <v>256446</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>424254</v>
+        <v>422546</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>412054</v>
+        <v>413924</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>496719</v>
+        <v>496884</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6539</v>
+        <v>6235</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>6739</v>
+        <v>5950</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2782</v>
+        <v>2767</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5233</v>
+        <v>5069</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>414181</v>
+        <v>412704</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>382196</v>
+        <v>382640</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>333438</v>
+        <v>329572</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>268679</v>
+        <v>270197</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>420172</v>
+        <v>424693</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>389228</v>
+        <v>393815</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>334852</v>
+        <v>336518</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>278164</v>
+        <v>278179</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>19491</v>
+        <v>18668</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21566</v>
+        <v>20529</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14087</v>
+        <v>14296</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>17965</v>
+        <v>17543</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>480665</v>
+        <v>480674</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>445503</v>
+        <v>447824</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>396554</v>
+        <v>398034</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>318132</v>
+        <v>320755</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>494269</v>
+        <v>495354</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>458736</v>
+        <v>459829</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>403212</v>
+        <v>405736</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>333911</v>
+        <v>332866</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>477200</v>
+        <v>472332</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>562600</v>
+        <v>565282</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>521377</v>
+        <v>521938</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>679396</v>
+        <v>678991</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>867595</v>
+        <v>865541</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>976396</v>
+        <v>975490</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>867663</v>
+        <v>866987</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1062188</v>
+        <v>1066723</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1371455</v>
+        <v>1373688</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1561241</v>
+        <v>1571494</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1416007</v>
+        <v>1411931</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1762231</v>
+        <v>1763396</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>564429</v>
+        <v>560106</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>659629</v>
+        <v>660285</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>611984</v>
+        <v>612465</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>772239</v>
+        <v>769559</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>969050</v>
+        <v>967593</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1088296</v>
+        <v>1086391</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>977615</v>
+        <v>970720</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1150097</v>
+        <v>1154863</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1499565</v>
+        <v>1499032</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1713709</v>
+        <v>1722921</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1560099</v>
+        <v>1557931</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1897929</v>
+        <v>1900116</v>
       </c>
     </row>
     <row r="32">
